--- a/turnotarde.xlsx
+++ b/turnotarde.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Acer\Desktop\AppPython\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8FB591D-412E-48FC-AF6C-65D72D3895EF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999852BD-7E46-4E15-8D00-F937FE36D17C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -245,36 +245,6 @@
   </cellStyles>
   <dxfs count="9">
     <dxf>
-      <border outline="0">
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <border outline="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
       <fill>
         <patternFill patternType="solid">
           <fgColor indexed="64"/>
@@ -408,6 +378,36 @@
         </bottom>
         <vertical/>
         <horizontal/>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border outline="0">
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
       </border>
     </dxf>
   </dxfs>
@@ -431,15 +431,15 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC2D8B1D-D2E4-4656-A1D0-7EDEE789F410}" name="Tabla1" displayName="Tabla1" ref="B2:H28" totalsRowShown="0" headerRowBorderDxfId="1" tableBorderDxfId="2" totalsRowBorderDxfId="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{DC2D8B1D-D2E4-4656-A1D0-7EDEE789F410}" name="Tabla1" displayName="Tabla1" ref="B2:H28" totalsRowShown="0" headerRowBorderDxfId="8" tableBorderDxfId="7" totalsRowBorderDxfId="6">
   <autoFilter ref="B2:H28" xr:uid="{DC2D8B1D-D2E4-4656-A1D0-7EDEE789F410}"/>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{F8617557-BF9E-4DA9-A4BE-35584BD3FCA5}" name="Apilador" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{BECE0A1A-296F-43F0-B589-7C1410847BE5}" name="LUNES" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{AA2E4185-282A-4E93-AF28-6E84C29BCB16}" name="MARTES" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{6B2751FF-4215-47EB-98BC-2D32AD84B267}" name="MIÉRCOLES" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{4BA8BF24-9038-47E1-9867-AA9BB32017A4}" name="JUEVES" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{447C3C35-B327-4C53-BDB1-6A3A1C2E70EB}" name="VIERNES" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{F8617557-BF9E-4DA9-A4BE-35584BD3FCA5}" name="Apilador" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{BECE0A1A-296F-43F0-B589-7C1410847BE5}" name="LUNES" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{AA2E4185-282A-4E93-AF28-6E84C29BCB16}" name="MARTES" dataDxfId="3"/>
+    <tableColumn id="4" xr3:uid="{6B2751FF-4215-47EB-98BC-2D32AD84B267}" name="MIÉRCOLES" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{4BA8BF24-9038-47E1-9867-AA9BB32017A4}" name="JUEVES" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{447C3C35-B327-4C53-BDB1-6A3A1C2E70EB}" name="VIERNES" dataDxfId="0"/>
     <tableColumn id="7" xr3:uid="{571113F2-073F-49F8-86D8-C4F67A879209}" name="SÁBADO"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -735,8 +735,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="B2:H28"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A6" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="F3" sqref="F3:F28"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.88671875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
